--- a/Team-Data/2007-08/1-5-2007-08.xlsx
+++ b/Team-Data/2007-08/1-5-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,64 +733,64 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>0.484</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="J2" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="L2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M2" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.312</v>
+        <v>0.319</v>
       </c>
       <c r="O2" t="n">
         <v>22.5</v>
       </c>
       <c r="P2" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.773</v>
+        <v>0.776</v>
       </c>
       <c r="R2" t="n">
         <v>11.8</v>
       </c>
       <c r="S2" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T2" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U2" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="V2" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W2" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="X2" t="n">
         <v>5.5</v>
@@ -732,28 +799,28 @@
         <v>5.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.7</v>
+        <v>94.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>4</v>
@@ -765,37 +832,37 @@
         <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS2" t="n">
         <v>24</v>
       </c>
       <c r="AT2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AV2" t="n">
         <v>18</v>
@@ -816,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="BB2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.906</v>
+        <v>0.903</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="J3" t="n">
-        <v>75.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.473</v>
+        <v>0.475</v>
       </c>
       <c r="L3" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.386</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="P3" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T3" t="n">
-        <v>42</v>
+        <v>41.7</v>
       </c>
       <c r="U3" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="V3" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W3" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X3" t="n">
         <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -947,10 +1014,10 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM3" t="n">
         <v>10</v>
@@ -959,25 +1026,25 @@
         <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS3" t="n">
         <v>7</v>
       </c>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>13</v>
@@ -989,7 +1056,7 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>14</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-5.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
@@ -1129,7 +1196,7 @@
         <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>14</v>
@@ -1138,7 +1205,7 @@
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
         <v>17</v>
@@ -1162,22 +1229,22 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
         <v>10</v>
       </c>
       <c r="AX4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA4" t="n">
         <v>16</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>27</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -1212,58 +1279,58 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
         <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>0.406</v>
+        <v>0.387</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="J5" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.417</v>
+        <v>0.419</v>
       </c>
       <c r="L5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
         <v>0.327</v>
       </c>
       <c r="O5" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="P5" t="n">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="R5" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T5" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U5" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V5" t="n">
         <v>14.8</v>
@@ -1272,25 +1339,25 @@
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
         <v>93.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.4</v>
+        <v>-3.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1305,31 +1372,31 @@
         <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>3</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
         <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1347,22 +1414,22 @@
         <v>11</v>
       </c>
       <c r="AW5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ5" t="n">
         <v>12</v>
       </c>
       <c r="BA5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>-3.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
         <v>17</v>
@@ -1490,7 +1557,7 @@
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
@@ -1502,10 +1569,10 @@
         <v>13</v>
       </c>
       <c r="AN6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO6" t="n">
         <v>19</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>20</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
@@ -1538,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA6" t="n">
         <v>25</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>4</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="n">
         <v>5</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
         <v>22</v>
@@ -1672,7 +1739,7 @@
         <v>16</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
         <v>6</v>
@@ -1681,7 +1748,7 @@
         <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN7" t="n">
         <v>12</v>
@@ -1699,10 +1766,10 @@
         <v>22</v>
       </c>
       <c r="AS7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
         <v>17</v>
@@ -1729,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ8" t="n">
         <v>19</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -1940,61 +2007,61 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
         <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.765</v>
+        <v>0.788</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="J9" t="n">
         <v>79.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.468</v>
+        <v>0.47</v>
       </c>
       <c r="L9" t="n">
         <v>5.9</v>
       </c>
       <c r="M9" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O9" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P9" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.763</v>
+        <v>0.765</v>
       </c>
       <c r="R9" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S9" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T9" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U9" t="n">
         <v>23.6</v>
       </c>
       <c r="V9" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
@@ -2003,22 +2070,22 @@
         <v>5.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.3</v>
+        <v>10.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2048,16 +2115,16 @@
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR9" t="n">
         <v>17</v>
@@ -2066,7 +2133,7 @@
         <v>22</v>
       </c>
       <c r="AT9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
@@ -2078,19 +2145,19 @@
         <v>19</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BB9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2236,7 +2303,7 @@
         <v>16</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>20</v>
@@ -2245,7 +2312,7 @@
         <v>5</v>
       </c>
       <c r="AS10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2254,16 +2321,16 @@
         <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>25</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -2304,55 +2371,55 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.485</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J11" t="n">
-        <v>81.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L11" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
         <v>0.333</v>
       </c>
       <c r="O11" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P11" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R11" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="S11" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T11" t="n">
-        <v>44</v>
+        <v>44.4</v>
       </c>
       <c r="U11" t="n">
         <v>20.7</v>
@@ -2364,43 +2431,43 @@
         <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI11" t="n">
         <v>19</v>
       </c>
-      <c r="AI11" t="n">
-        <v>18</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
         <v>24</v>
@@ -2418,22 +2485,22 @@
         <v>27</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT11" t="n">
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
@@ -2448,10 +2515,10 @@
         <v>12</v>
       </c>
       <c r="AZ11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>-0.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
         <v>19</v>
@@ -2576,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2597,7 +2664,7 @@
         <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="n">
         <v>20</v>
@@ -2621,7 +2688,7 @@
         <v>20</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2633,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
@@ -2767,7 +2834,7 @@
         <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
         <v>25</v>
@@ -2782,10 +2849,10 @@
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR13" t="n">
         <v>24</v>
@@ -2815,7 +2882,7 @@
         <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB13" t="n">
         <v>30</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>5.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2949,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>10</v>
@@ -2967,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
         <v>18</v>
@@ -2988,22 +3055,22 @@
         <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ14" t="n">
         <v>22</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3155,16 +3222,16 @@
         <v>27</v>
       </c>
       <c r="AS15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW15" t="n">
         <v>29</v>
@@ -3173,7 +3240,7 @@
         <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
         <v>5</v>
@@ -3185,7 +3252,7 @@
         <v>10</v>
       </c>
       <c r="BC15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>28</v>
@@ -3304,7 +3371,7 @@
         <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>24</v>
@@ -3313,7 +3380,7 @@
         <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
@@ -3328,13 +3395,13 @@
         <v>14</v>
       </c>
       <c r="AP16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS16" t="n">
         <v>21</v>
@@ -3352,7 +3419,7 @@
         <v>12</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -3474,16 +3541,16 @@
         <v>-6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>5</v>
@@ -3501,7 +3568,7 @@
         <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
         <v>23</v>
@@ -3516,13 +3583,13 @@
         <v>22</v>
       </c>
       <c r="AR17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS17" t="n">
         <v>29</v>
       </c>
       <c r="AT17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
@@ -3540,13 +3607,13 @@
         <v>21</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3683,7 +3750,7 @@
         <v>19</v>
       </c>
       <c r="AM18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -3760,97 +3827,97 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="n">
         <v>16</v>
       </c>
       <c r="G19" t="n">
-        <v>0.515</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="J19" t="n">
         <v>76.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="M19" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.323</v>
+        <v>0.317</v>
       </c>
       <c r="O19" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="P19" t="n">
-        <v>29</v>
+        <v>28.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.73</v>
+        <v>0.734</v>
       </c>
       <c r="R19" t="n">
         <v>11.3</v>
       </c>
       <c r="S19" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T19" t="n">
         <v>41.4</v>
       </c>
       <c r="U19" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V19" t="n">
         <v>16</v>
       </c>
       <c r="W19" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z19" t="n">
         <v>23.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.40000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.1</v>
+        <v>-4.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3865,19 +3932,19 @@
         <v>22</v>
       </c>
       <c r="AM19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="n">
         <v>16</v>
@@ -3892,28 +3959,28 @@
         <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>6</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
         <v>29</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -3942,70 +4009,70 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" t="n">
         <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>0.676</v>
+        <v>0.667</v>
       </c>
       <c r="H20" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="J20" t="n">
-        <v>83.2</v>
+        <v>82.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.447</v>
+        <v>0.445</v>
       </c>
       <c r="L20" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M20" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="O20" t="n">
         <v>15.9</v>
       </c>
       <c r="P20" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q20" t="n">
         <v>0.793</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="T20" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U20" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V20" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W20" t="n">
         <v>7.9</v>
       </c>
       <c r="X20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="Z20" t="n">
         <v>19.4</v>
@@ -4014,16 +4081,16 @@
         <v>19.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
@@ -4032,19 +4099,19 @@
         <v>5</v>
       </c>
       <c r="AH20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL20" t="n">
         <v>8</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>7</v>
       </c>
       <c r="AM20" t="n">
         <v>7</v>
@@ -4065,13 +4132,13 @@
         <v>14</v>
       </c>
       <c r="AS20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT20" t="n">
         <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
@@ -4083,7 +4150,7 @@
         <v>27</v>
       </c>
       <c r="AY20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ20" t="n">
         <v>3</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC20" t="n">
         <v>6</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" t="n">
-        <v>0.25</v>
+        <v>0.258</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J21" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="L21" t="n">
         <v>5.5</v>
@@ -4154,67 +4221,67 @@
         <v>16.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.33</v>
+        <v>0.326</v>
       </c>
       <c r="O21" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P21" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="Q21" t="n">
         <v>0.707</v>
       </c>
       <c r="R21" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S21" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="T21" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U21" t="n">
         <v>16.8</v>
       </c>
       <c r="V21" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="W21" t="n">
         <v>6.7</v>
       </c>
       <c r="X21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="AB21" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
       </c>
       <c r="AF21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
         <v>28</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4232,13 +4299,13 @@
         <v>19</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
         <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ21" t="n">
         <v>28</v>
@@ -4247,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="AS21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT21" t="n">
         <v>12</v>
@@ -4256,25 +4323,25 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ21" t="n">
         <v>18</v>
       </c>
       <c r="BA21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BB21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF22" t="n">
         <v>9</v>
@@ -4417,7 +4484,7 @@
         <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
@@ -4447,7 +4514,7 @@
         <v>19</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
         <v>13</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>20</v>
@@ -4581,7 +4648,7 @@
         <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
         <v>18</v>
@@ -4608,16 +4675,16 @@
         <v>26</v>
       </c>
       <c r="AR23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT23" t="n">
         <v>17</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
         <v>22</v>
@@ -4629,13 +4696,13 @@
         <v>6</v>
       </c>
       <c r="AY23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB23" t="n">
         <v>27</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" t="n">
         <v>23</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>0.697</v>
+        <v>0.719</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="J24" t="n">
-        <v>85.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.492</v>
+        <v>0.491</v>
       </c>
       <c r="L24" t="n">
         <v>8.300000000000001</v>
@@ -4700,37 +4767,37 @@
         <v>22.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O24" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P24" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R24" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U24" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="V24" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W24" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y24" t="n">
         <v>3.8</v>
@@ -4742,22 +4809,22 @@
         <v>19.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
       </c>
       <c r="AF24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH24" t="n">
         <v>24</v>
@@ -4766,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -4784,10 +4851,10 @@
         <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
@@ -4805,7 +4872,7 @@
         <v>6</v>
       </c>
       <c r="AW24" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4823,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -4852,70 +4919,70 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" t="n">
         <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>0.618</v>
+        <v>0.606</v>
       </c>
       <c r="H25" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I25" t="n">
         <v>35.8</v>
       </c>
       <c r="J25" t="n">
-        <v>77.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
       <c r="L25" t="n">
         <v>6.6</v>
       </c>
       <c r="M25" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.386</v>
+        <v>0.383</v>
       </c>
       <c r="O25" t="n">
-        <v>18.4</v>
+        <v>18.1</v>
       </c>
       <c r="P25" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.761</v>
+        <v>0.757</v>
       </c>
       <c r="R25" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S25" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T25" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U25" t="n">
         <v>21.7</v>
       </c>
       <c r="V25" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W25" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X25" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z25" t="n">
         <v>19.9</v>
@@ -4924,13 +4991,13 @@
         <v>21.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>8</v>
@@ -4942,16 +5009,16 @@
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL25" t="n">
         <v>12</v>
@@ -4963,19 +5030,19 @@
         <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
         <v>27</v>
@@ -4999,7 +5066,7 @@
         <v>6</v>
       </c>
       <c r="BA25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" t="n">
         <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>0.375</v>
+        <v>0.387</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
@@ -5052,19 +5119,19 @@
         <v>35.3</v>
       </c>
       <c r="J26" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.45</v>
       </c>
       <c r="L26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M26" t="n">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O26" t="n">
         <v>21.3</v>
@@ -5073,58 +5140,58 @@
         <v>27.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R26" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S26" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T26" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="U26" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="V26" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="W26" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="X26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3.2</v>
+        <v>-3.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>25</v>
@@ -5142,7 +5209,7 @@
         <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
@@ -5157,7 +5224,7 @@
         <v>21</v>
       </c>
       <c r="AS26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5175,16 +5242,16 @@
         <v>28</v>
       </c>
       <c r="AY26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA26" t="n">
         <v>6</v>
       </c>
       <c r="BB26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>6.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
       </c>
       <c r="AG27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH27" t="n">
         <v>24</v>
@@ -5339,13 +5406,13 @@
         <v>25</v>
       </c>
       <c r="AS27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT27" t="n">
         <v>18</v>
       </c>
       <c r="AU27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV27" t="n">
         <v>3</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>26</v>
@@ -5488,13 +5555,13 @@
         <v>26</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
         <v>7</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK28" t="n">
         <v>23</v>
@@ -5509,16 +5576,16 @@
         <v>13</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5545,7 +5612,7 @@
         <v>16</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
         <v>14</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -5658,28 +5725,28 @@
         <v>1.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
         <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5721,7 +5788,7 @@
         <v>24</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" t="n">
         <v>18</v>
       </c>
       <c r="F30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" t="n">
-        <v>0.514</v>
+        <v>0.529</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J30" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.49</v>
@@ -5792,64 +5859,64 @@
         <v>10.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O30" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="P30" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.745</v>
+        <v>0.748</v>
       </c>
       <c r="R30" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S30" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="T30" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="V30" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W30" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y30" t="n">
         <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>104.5</v>
+        <v>104.9</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
@@ -5864,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="AL30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM30" t="n">
         <v>30</v>
@@ -5873,16 +5940,16 @@
         <v>11</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ30" t="n">
         <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>30</v>
@@ -5900,7 +5967,7 @@
         <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY30" t="n">
         <v>29</v>
@@ -5909,13 +5976,13 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
@@ -6022,22 +6089,22 @@
         <v>2</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF31" t="n">
         <v>11</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>10</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ31" t="n">
         <v>13</v>
@@ -6067,19 +6134,19 @@
         <v>11</v>
       </c>
       <c r="AS31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT31" t="n">
         <v>8</v>
       </c>
       <c r="AU31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV31" t="n">
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
@@ -6094,7 +6161,7 @@
         <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-5-2007-08</t>
+          <t>2008-01-05</t>
         </is>
       </c>
     </row>
